--- a/medicine/Psychotrope/French_75_(cocktail)/French_75_(cocktail).xlsx
+++ b/medicine/Psychotrope/French_75_(cocktail)/French_75_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un French 75  ou Français 75 ou Soixante Quinze ou Seventy-Five est un cocktail officiel de l'IBA, à base de gin, de jus de citron, de sucre et de champagne[1]. 
+Un French 75  ou Français 75 ou Soixante Quinze ou Seventy-Five est un cocktail officiel de l'IBA, à base de gin, de jus de citron, de sucre et de champagne. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une première version « 75 » de ce cocktail est créée en 1915, par le barman écossais Harry MacElhone (en) du Harry's New York Bar de Paris, avec un mélange d'absinthe, calvados, gin, grenadine, et jus de citron. Très populaire pendant la Première Guerre mondiale, il est nommé d'après l'effet détonnant d'un obus de pièce d'artillerie canon de 75 mm modèle 1897 de l'armée française et des Alliés, avec une probable allusion à Paris (75). Il le publie en 1923 dans son guide des cocktails Harry of Ciro's ABC of Mixing Cocktails[2].
-La version actuelle du French 75, avec du gin et du champagne, apparaît en 1927 dans le guide Here's How, de Judge Jr's [3],[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une première version « 75 » de ce cocktail est créée en 1915, par le barman écossais Harry MacElhone (en) du Harry's New York Bar de Paris, avec un mélange d'absinthe, calvados, gin, grenadine, et jus de citron. Très populaire pendant la Première Guerre mondiale, il est nommé d'après l'effet détonnant d'un obus de pièce d'artillerie canon de 75 mm modèle 1897 de l'armée française et des Alliés, avec une probable allusion à Paris (75). Il le publie en 1923 dans son guide des cocktails Harry of Ciro's ABC of Mixing Cocktails.
+La version actuelle du French 75, avec du gin et du champagne, apparaît en 1927 dans le guide Here's How, de Judge Jr's ,. 
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recette officielle de l'IBA[5] :
-30 ml de gin (parfois du cognac[6]) ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recette officielle de l'IBA :
+30 ml de gin (parfois du cognac) ;
 15 ml de jus de citron ;
 15 ml de sirop de sucre ;
 60 ml de champagne.
-Passer les 3 premiers ingrédients au shaker avec des glaçons. Verser dans une flûte à champagne, et compléter avec du champagne en mélangeant très doucement. Garnir éventuellement d'une rondelle ou d'une zeste de citron[7],[8].
+Passer les 3 premiers ingrédients au shaker avec des glaçons. Verser dans une flûte à champagne, et compléter avec du champagne en mélangeant très doucement. Garnir éventuellement d'une rondelle ou d'une zeste de citron,.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Collins
 Gin fizz
